--- a/biology/Zoologie/Cemophora_coccinea/Cemophora_coccinea.xlsx
+++ b/biology/Zoologie/Cemophora_coccinea/Cemophora_coccinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cemophora coccinea, unique représentant du genre Cemophora, est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cemophora coccinea, unique représentant du genre Cemophora, est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Alabama, en Arkansas, en Caroline du Nord, en Caroline du Sud, au Delaware, en Floride, en Géorgie, en Illinois, en Indiana, au Kentucky, en Louisiane, au Maryland, au Mississippi, au Missouri, au New Jersey, en Oklahoma, au Tennessee, au Texas et en Virginie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Alabama, en Arkansas, en Caroline du Nord, en Caroline du Sud, au Delaware, en Floride, en Géorgie, en Illinois, en Indiana, au Kentucky, en Louisiane, au Maryland, au Mississippi, au Missouri, au New Jersey, en Oklahoma, au Tennessee, au Texas et en Virginie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cemophora coccinea mesure entre 36 et 66 cm. Son dos est blanc-beige avec de larges points rouges délimitées de noir. Les points rouges peuvent parfois se rejoindre jusqu'à donner des bandes transversales. Son ventre est gris clair.
 C'est un animal nocturne, qui reste caché au sol durant la journée. Il se nourrit de petits lézards, rongeurs, œufs et parfois d'autres serpents. C'est une espèce ovipare, qui pond en général de 3 à 8 œufs à la fois. La femelle peut pondre plusieurs fois durant la saison.
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (11 août 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (11 août 2011) :
 Cemophora coccinea coccinea (Blumenbach, 1788) - Floride
 Cemophora coccinea copei Jan, 1863 - toute la zone de distribution à l'exception de la Floride et le Texas
 Cemophora coccinea lineri Williams, Brown &amp; Wilson, 1966 - Texas</t>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Blumenbach, 1788 : Einige Naturhistorische Bemerkungen bey Gelegenheit einer Schweizer-Reise. Magazin für das neueste aus der Physik und Naturgeschichte vol. 5, part. 2 (texte intégral).
 Cope, 1860 : Catalogue of the Colubridæ in the Museum of the Academy of Natural Sciences of Philadelphia, with notes and descriptions of new species. Part 2. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 241-266 (texte intégral).
